--- a/pred_ohlcv/54_21/2019-10-14 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 TMTG ohlcv.xlsx
@@ -2264,7 +2264,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>26732849.82220769</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>26732961.31350769</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>26732961.31350769</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>26732961.31350769</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>26732815.1615077</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>26732876.1214077</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>26732984.46800769</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>26732881.8915077</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>26732881.8915077</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>21441421.45040769</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>22941800.54300769</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>19370205.33130769</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>20845397.30000769</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>20845397.30000769</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>21866729.06690769</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>21826895.32390769</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-14 TMTG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-14 TMTG ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>2676211.582107691</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>26732977.24100769</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>26732815.1615077</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>26732849.6093077</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>26732993.3413077</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>26732876.1214077</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>26732984.46800769</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>26732881.8915077</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>26732984.1100077</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>26305190.72790769</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>26305330.29810769</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>26305220.46070769</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>26305338.57440769</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>26305338.57440769</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>26305338.57440769</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>26305338.57440769</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>26305193.06240769</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>26305215.92310769</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>26305348.7207077</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>26305247.7661077</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>26305358.8217077</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>26305232.69180769</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>26305231.04370769</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>26305363.18180769</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>26305363.18180769</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>25513130.17220769</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>25523871.04220769</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>25523898.68020769</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>25227214.59660769</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>25227214.59660769</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>25519305.10580769</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>21441421.45040769</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>21979366.07610769</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>21979366.07610769</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>21952503.87490769</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>21956079.54300769</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>22941800.54300769</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>20938388.36840769</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>20785798.77060769</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>20845397.30000769</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>20845397.30000769</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>20845255.22720769</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>21866729.06690769</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>21866739.06690769</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>21866739.06690769</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>21866749.52840769</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>21826751.84650769</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>21826895.32390769</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>21014199.27760769</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>17114977.63640769</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>17315028.61670769</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
